--- a/Offline/BusinessManagement/Ops/TeachingOps/TeachingOps-2023-11.xlsx
+++ b/Offline/BusinessManagement/Ops/TeachingOps/TeachingOps-2023-11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\TeachingOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AFEB48-2BD0-43D5-95E1-E182F58F6CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32FF363-2188-41AE-BCBE-674C9A5D1886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -24,19 +24,10 @@
     <sheet name="B4" sheetId="9" r:id="rId9"/>
     <sheet name="B5" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -50,10 +41,19 @@
   <commentList>
     <comment ref="D12" authorId="0" shapeId="0" xr:uid="{D866EEE6-AA84-4101-9AF1-5A6CB59280DF}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1) Redox</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -68,10 +68,19 @@
   <commentList>
     <comment ref="D12" authorId="0" shapeId="0" xr:uid="{9982AFAF-E6E7-45BF-A44A-0C0167B0574C}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1) Redox</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -86,10 +95,19 @@
   <commentList>
     <comment ref="D12" authorId="0" shapeId="0" xr:uid="{4EE09740-4AB8-4767-BD8A-38F7D58F39B2}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1) Elasticity</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -104,10 +122,19 @@
   <commentList>
     <comment ref="D12" authorId="0" shapeId="0" xr:uid="{77BE6F65-1B38-40C6-BD39-81B5DFEC0749}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1) Determinants</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -122,11 +149,20 @@
   <commentList>
     <comment ref="D12" authorId="0" shapeId="0" xr:uid="{B5EE903F-7E28-4BDF-8B15-DFA52920170A}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1) Classes,Object,Access Modifiers and Inheritance
 2) List</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -134,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
   <si>
     <t>Course</t>
   </si>
@@ -181,9 +217,6 @@
     <t>Booster JELET Crash Course Physics</t>
   </si>
   <si>
-    <t>Rahul Ganguly</t>
-  </si>
-  <si>
     <t>Booster JELET Crash Course Maths</t>
   </si>
   <si>
@@ -220,9 +253,6 @@
     <t>Amount Due</t>
   </si>
   <si>
-    <t>Due</t>
-  </si>
-  <si>
     <t>Paid</t>
   </si>
   <si>
@@ -238,16 +268,10 @@
     <t># Students</t>
   </si>
   <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>Payable</t>
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Sub-Total</t>
   </si>
   <si>
     <t>Student Name</t>
@@ -343,6 +367,33 @@
   </si>
   <si>
     <t>10:30 AM - 12:30 PM</t>
+  </si>
+  <si>
+    <t>AVISHEK ADHIKARI</t>
+  </si>
+  <si>
+    <t>IFSC</t>
+  </si>
+  <si>
+    <t>A/c #</t>
+  </si>
+  <si>
+    <t>A/c Name</t>
+  </si>
+  <si>
+    <t>SBIN0005368</t>
+  </si>
+  <si>
+    <t>Faculty Total Pay</t>
+  </si>
+  <si>
+    <t>Pay Date</t>
+  </si>
+  <si>
+    <t>Sajda Sultana</t>
+  </si>
+  <si>
+    <t>7****62081</t>
   </si>
 </sst>
 </file>
@@ -352,7 +403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,12 +474,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -486,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1007,11 +1052,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1058,7 +1155,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1184,6 +1280,22 @@
     <xf numFmtId="14" fontId="9" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1226,6 +1338,8 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1593,7 +1707,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1607,167 +1721,167 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="45">
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="44">
         <v>45234</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
-    </row>
-    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="92"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="38">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="107"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="37">
         <v>1</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="C6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="40">
+      <c r="C7" s="40"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="40">
+      <c r="C8" s="40"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="39">
         <v>4</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
+      <c r="C9" s="40"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="39">
         <v>5</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="42">
+      <c r="C10" s="40"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="41">
         <v>6</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
+    </row>
+    <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1786,26 +1900,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF67B1-7A31-46BB-8007-D9F915FBEBAF}">
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1328125" customWidth="1"/>
+    <col min="2" max="2" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -1820,13 +1934,13 @@
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>5</v>
@@ -1841,9 +1955,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
@@ -1861,20 +1975,20 @@
         <v>2000</v>
       </c>
       <c r="H3" s="9">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I3" s="9">
         <f>G3-H3</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="11"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1885,7 +1999,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I14" si="0">G4-H4</f>
+        <f t="shared" ref="H4:I14" si="0">G4-H4</f>
         <v>0</v>
       </c>
       <c r="J4" s="2"/>
@@ -1893,7 +2007,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1912,9 +2026,9 @@
       <c r="L5" s="14"/>
       <c r="M5" s="16"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>12</v>
@@ -1931,19 +2045,27 @@
       <c r="G6" s="18">
         <v>3334</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="18">
+        <v>3334</v>
+      </c>
       <c r="I6" s="18">
         <f t="shared" si="0"/>
-        <v>3334</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="113">
+        <v>45239</v>
+      </c>
       <c r="M6" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="20"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1962,7 +2084,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -1981,15 +2103,15 @@
       <c r="L8" s="23"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -2000,19 +2122,25 @@
       <c r="G9" s="9">
         <v>3333</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9">
+        <v>3333</v>
+      </c>
       <c r="I9" s="9">
         <f t="shared" si="0"/>
-        <v>3333</v>
+        <v>0</v>
       </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="114">
+        <v>45239</v>
+      </c>
       <c r="M9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="11"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2031,7 +2159,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -2050,15 +2178,15 @@
       <c r="L11" s="14"/>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="E12" s="18">
         <v>1</v>
@@ -2069,19 +2197,25 @@
       <c r="G12" s="18">
         <v>3333</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="18">
+        <v>3333</v>
+      </c>
       <c r="I12" s="18">
         <f t="shared" si="0"/>
-        <v>3333</v>
+        <v>0</v>
       </c>
       <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="K12" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="113">
+        <v>45239</v>
+      </c>
       <c r="M12" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" s="20"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2100,7 +2234,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -2119,9 +2253,9 @@
       <c r="L14" s="23"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F15" s="35" t="s">
-        <v>36</v>
+    <row r="15" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F15" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="G15" s="26">
         <f>SUM(G3:G14)</f>
@@ -2129,11 +2263,11 @@
       </c>
       <c r="H15" s="27">
         <f>SUM(H3:H14)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I15" s="25">
         <f>SUM(I3:I14)</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2143,34 +2277,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33D141-6777-454F-A53F-584318966504}">
-  <dimension ref="B1:N12"/>
+  <dimension ref="B1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.19921875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.21875" style="28" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="28"/>
+    <col min="7" max="7" width="11.46484375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.46484375" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.9296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.73046875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.73046875" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.19921875" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.3984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.1328125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="12.6" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
@@ -2181,45 +2319,54 @@
         <v>1</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>35</v>
-      </c>
       <c r="I2" s="30" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="K2" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="O2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="P2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -2227,104 +2374,130 @@
       <c r="F3" s="8">
         <v>1500</v>
       </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="8">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8">
         <v>9007571514</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="O3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B4" s="85"/>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>2250</v>
+        <v>2500</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="2:14" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="I4" s="3"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="89"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="91">
         <f>SUM(F3:G4)</f>
-        <v>3750</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15">
-        <f t="shared" ref="J5:J11" si="0">H5-I5</f>
-        <v>3750</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="18" t="s">
+        <v>4500</v>
+      </c>
+      <c r="I5" s="91">
+        <f>H5</f>
+        <v>4500</v>
+      </c>
+      <c r="J5" s="92">
+        <v>45239</v>
+      </c>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="93"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B6" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="98" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="18">
         <v>1</v>
       </c>
       <c r="F6" s="18">
-        <v>2250</v>
+        <v>2500</v>
       </c>
       <c r="G6" s="18">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="K6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="18">
+        <v>40069897092</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B7" s="86"/>
+      <c r="C7" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2500</v>
+      </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2332,114 +2505,55 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="2:14" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="87"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H8" s="33">
         <f>SUM(F6:G7)</f>
-        <v>2250</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="33">
-        <f t="shared" si="0"/>
-        <v>2250</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2250</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="2:14" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="15">
-        <f>SUM(F9:G10)</f>
-        <v>2250</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15">
-        <f t="shared" si="0"/>
-        <v>2250</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G12" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="34">
-        <f>SUM(H11,H8,H5)</f>
-        <v>8250</v>
-      </c>
-      <c r="I12" s="27">
-        <f t="shared" ref="I12:J12" si="1">SUM(I11,I8,I5)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="34">
-        <f t="shared" si="1"/>
-        <v>8250</v>
-      </c>
+        <v>6000</v>
+      </c>
+      <c r="I8" s="33">
+        <f>H8</f>
+        <v>6000</v>
+      </c>
+      <c r="J8" s="88">
+        <v>45239</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24"/>
+    </row>
+    <row r="9" spans="2:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G9" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="94">
+        <f>SUM(H3:H8)</f>
+        <v>10500</v>
+      </c>
+      <c r="I9" s="94">
+        <f>SUM(I3:I8)</f>
+        <v>10500</v>
+      </c>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2454,7 +2568,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2468,60 +2582,60 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="57">
+      <c r="E2" s="56">
         <v>45202</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2537,170 +2651,170 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="7" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="93" t="s">
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="45">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="44">
         <v>45232</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
-    </row>
-    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="92"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="38">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="107"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="37">
         <v>1</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="C6" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="40">
+      <c r="C7" s="40"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="40">
+      <c r="C8" s="40"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="39">
         <v>4</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
+      <c r="C9" s="40"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="39">
         <v>5</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="42">
+      <c r="C10" s="40"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="41">
         <v>6</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
+    </row>
+    <row r="12" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2723,168 +2837,168 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="45">
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="44">
         <v>45232</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="70"/>
-    </row>
-    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="92"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="38">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="107"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="37">
         <v>1</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="D6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="66"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="40">
+      <c r="C7" s="40"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="40">
+      <c r="C8" s="40"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="39">
         <v>4</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
+      <c r="C9" s="40"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="39">
         <v>5</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="42">
+      <c r="C10" s="40"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="41">
         <v>6</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
+    </row>
+    <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2907,185 +3021,185 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="7" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+    <col min="6" max="7" width="18.19921875" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="97"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="45">
+    <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="112"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="44">
         <v>45234</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="92"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="38">
+      <c r="E4" s="45"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="107"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="37">
         <v>1</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="D6" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="40">
+      <c r="C7" s="40"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="40">
+      <c r="C8" s="40"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="39">
         <v>4</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
+      <c r="C9" s="40"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="39">
         <v>5</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
-    </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="42">
+      <c r="C10" s="40"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="41">
         <v>6</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="82"/>
-    </row>
-    <row r="24" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="42"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
+    </row>
+    <row r="12" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="81"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3105,185 +3219,185 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0268C353-496F-4BD6-A7EF-D042619A03C3}">
   <dimension ref="B1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="7" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.46484375" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" customWidth="1"/>
+    <col min="6" max="7" width="17.86328125" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="84" t="s">
+    <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="101"/>
+    </row>
+    <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="112"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="44">
+        <v>45234</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69"/>
+    </row>
+    <row r="5" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="107"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="37">
+        <v>1</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="95" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="97"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="93" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="45">
-        <v>45234</v>
-      </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="92"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="73"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="38">
-        <v>1</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="40">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="39">
         <v>2</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="40">
+      <c r="C7" s="40"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="40">
+      <c r="C8" s="40"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="39">
         <v>4</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="40">
+      <c r="C9" s="40"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="39">
         <v>5</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
-    </row>
-    <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="42">
+      <c r="C10" s="40"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="41">
         <v>6</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="80"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
+    </row>
+    <row r="12" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="105"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Offline/BusinessManagement/Ops/TeachingOps/TeachingOps-2023-11.xlsx
+++ b/Offline/BusinessManagement/Ops/TeachingOps/TeachingOps-2023-11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\TeachingOps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32FF363-2188-41AE-BCBE-674C9A5D1886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBE6733-5666-40D3-A49F-C04E759262B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{C08D87AB-705E-4371-9352-7E8E74F7A2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="8" r:id="rId1"/>
@@ -36,10 +36,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={D866EEE6-AA84-4101-9AF1-5A6CB59280DF}</author>
+    <author>tc={9982AFAF-E6E7-45BF-A44A-0C0167B0574C}</author>
   </authors>
   <commentList>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{D866EEE6-AA84-4101-9AF1-5A6CB59280DF}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{04A41BDB-6338-4F4D-A6D7-1E904B9507AF}">
       <text>
         <r>
           <rPr>
@@ -49,10 +49,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1) Redox</t>
+          <t>1) Redox</t>
         </r>
       </text>
     </comment>
@@ -76,10 +73,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1) Redox</t>
+          <t>1) Redox</t>
         </r>
       </text>
     </comment>
@@ -170,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
   <si>
     <t>Course</t>
   </si>
@@ -297,9 +291,6 @@
 Timing: Thursday 2-6pm     ||     Start date: 07/Sep/2023</t>
   </si>
   <si>
-    <t>Rahul Ganguly's B3 batch timing not decided</t>
-  </si>
-  <si>
     <t>Sl #</t>
   </si>
   <si>
@@ -309,15 +300,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
-  <si>
-    <t>Escalation Level</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -325,9 +307,6 @@
   </si>
   <si>
     <t>Resolution Date</t>
-  </si>
-  <si>
-    <t>DN</t>
   </si>
   <si>
     <t>Assigned</t>
@@ -394,6 +373,75 @@
   </si>
   <si>
     <t>7****62081</t>
+  </si>
+  <si>
+    <t>1. Redox</t>
+  </si>
+  <si>
+    <t>Topics Covered</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Profitability gets hit</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Anirban</t>
+  </si>
+  <si>
+    <t>Teacher Pay too High for Subrata Ghosh (Chem)</t>
+  </si>
+  <si>
+    <t>Get more students in batch to reduce pay per student</t>
+  </si>
+  <si>
+    <t>Resolution Suggested</t>
+  </si>
+  <si>
+    <t>Teacher Pay too High for Avishek Sir (Math, Physics)</t>
+  </si>
+  <si>
+    <t># of Risks</t>
+  </si>
+  <si>
+    <t>Fee Received Percentage</t>
+  </si>
+  <si>
+    <t>Payout Percentage</t>
+  </si>
+  <si>
+    <t>Quality Issues</t>
+  </si>
+  <si>
+    <t>% of planned Syllabus Covered</t>
+  </si>
+  <si>
+    <t>JELET Test Book required for Phy, chem, Math</t>
+  </si>
+  <si>
+    <t>JEE Mains Paper required for Phy, chem, Math</t>
+  </si>
+  <si>
+    <t>Debasish</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Raised By</t>
+  </si>
+  <si>
+    <t>Need to buy book and College Doors login</t>
+  </si>
+  <si>
+    <t>ASAP</t>
+  </si>
+  <si>
+    <t>Quality Assessment gets hit</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1296,6 +1344,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1338,8 +1389,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1701,14 +1750,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C90D3B1-C76E-4CE0-A4AA-1FA923F6E3CF}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B1" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1730,34 +1823,34 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="99" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101"/>
+      <c r="B2" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="110" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="111" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="44">
@@ -1772,10 +1865,10 @@
       <c r="K4" s="69"/>
     </row>
     <row r="5" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="107"/>
-      <c r="C5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="82" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E5" s="47"/>
       <c r="F5" s="47"/>
@@ -1790,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
@@ -1874,10 +1967,10 @@
       <c r="K11" s="55"/>
     </row>
     <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="105"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="43"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -1900,7 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF67B1-7A31-46BB-8007-D9F915FBEBAF}">
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -1999,7 +2092,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <f t="shared" ref="H4:I14" si="0">G4-H4</f>
+        <f t="shared" ref="I4:I14" si="0">G4-H4</f>
         <v>0</v>
       </c>
       <c r="J4" s="2"/>
@@ -2053,12 +2146,12 @@
         <v>0</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="113">
+        <v>66</v>
+      </c>
+      <c r="L6" s="99">
         <v>45239</v>
       </c>
       <c r="M6" s="19" t="s">
@@ -2131,9 +2224,9 @@
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="114">
+        <v>66</v>
+      </c>
+      <c r="L9" s="100">
         <v>45239</v>
       </c>
       <c r="M9" s="10" t="s">
@@ -2206,9 +2299,9 @@
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="113">
+        <v>66</v>
+      </c>
+      <c r="L12" s="99">
         <v>45239</v>
       </c>
       <c r="M12" s="19" t="s">
@@ -2331,19 +2424,19 @@
         <v>32</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N2" s="30" t="s">
         <v>5</v>
@@ -2469,13 +2562,13 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L6" s="18">
         <v>40069897092</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
@@ -2576,66 +2669,177 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC6DCCC-E30E-4525-A65D-DF43CA79E3C2}">
-  <dimension ref="B1:I2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="3.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="56">
+        <v>45239</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="56">
-        <v>45202</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="56">
+        <v>45239</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="56">
+        <v>45239</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="56">
+        <v>45239</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2648,7 +2852,7 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2663,40 +2867,42 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="110" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="111" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="44">
         <v>45232</v>
       </c>
-      <c r="E4" s="45"/>
+      <c r="E4" s="45">
+        <v>45239</v>
+      </c>
       <c r="F4" s="45"/>
       <c r="G4" s="57"/>
       <c r="H4" s="67"/>
@@ -2705,12 +2911,14 @@
       <c r="K4" s="69"/>
     </row>
     <row r="5" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="107"/>
-      <c r="C5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="82" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="47"/>
+        <v>51</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>51</v>
+      </c>
       <c r="F5" s="47"/>
       <c r="G5" s="58"/>
       <c r="H5" s="70"/>
@@ -2726,9 +2934,11 @@
         <v>35</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="49"/>
+        <v>52</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>52</v>
+      </c>
       <c r="F6" s="49"/>
       <c r="G6" s="59"/>
       <c r="H6" s="64"/>
@@ -2807,11 +3017,13 @@
       <c r="K11" s="55"/>
     </row>
     <row r="12" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="108"/>
+      <c r="D12" s="43" t="s">
+        <v>68</v>
+      </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="36"/>
@@ -2834,7 +3046,7 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2847,40 +3059,42 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
     </row>
     <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="110" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="111" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="44">
         <v>45232</v>
       </c>
-      <c r="E4" s="45"/>
+      <c r="E4" s="45">
+        <v>45234</v>
+      </c>
       <c r="F4" s="45"/>
       <c r="G4" s="57"/>
       <c r="H4" s="67"/>
@@ -2889,12 +3103,14 @@
       <c r="K4" s="69"/>
     </row>
     <row r="5" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="107"/>
-      <c r="C5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="47"/>
+        <v>53</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="F5" s="47"/>
       <c r="G5" s="58"/>
       <c r="H5" s="70"/>
@@ -2910,9 +3126,11 @@
         <v>13</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="49"/>
+        <v>52</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>52</v>
+      </c>
       <c r="F6" s="49"/>
       <c r="G6" s="59"/>
       <c r="H6" s="64"/>
@@ -2991,11 +3209,13 @@
       <c r="K11" s="55"/>
     </row>
     <row r="12" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="43"/>
+      <c r="B12" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="108"/>
+      <c r="D12" s="43" t="s">
+        <v>68</v>
+      </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="36"/>
@@ -3033,36 +3253,36 @@
   <sheetData>
     <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
+      <c r="B2" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="110" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="112"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="111" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="44">
@@ -3078,10 +3298,10 @@
       <c r="L4" s="69"/>
     </row>
     <row r="5" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="107"/>
-      <c r="C5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="73" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
@@ -3100,7 +3320,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
@@ -3187,10 +3407,10 @@
       <c r="L11" s="55"/>
     </row>
     <row r="12" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="105"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="43"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -3199,7 +3419,7 @@
     </row>
     <row r="24" spans="11:11" x14ac:dyDescent="0.45">
       <c r="K24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3235,36 +3455,36 @@
   <sheetData>
     <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
+      <c r="B2" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="110" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="112"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="111" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="44">
@@ -3280,10 +3500,10 @@
       <c r="L4" s="69"/>
     </row>
     <row r="5" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="107"/>
-      <c r="C5" s="109"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="73" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E5" s="73"/>
       <c r="F5" s="74"/>
@@ -3302,7 +3522,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
@@ -3389,10 +3609,10 @@
       <c r="L11" s="55"/>
     </row>
     <row r="12" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="105"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="43"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
